--- a/1290/roster.xlsx
+++ b/1290/roster.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1687" uniqueCount="664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1683" uniqueCount="663">
   <si>
     <t xml:space="preserve">Black Holes Fall 2020</t>
   </si>
@@ -917,1054 +917,1051 @@
     <t xml:space="preserve">hsj5sn@virginia.edu</t>
   </si>
   <si>
+    <t xml:space="preserve">Kapadia, Azzaam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aak8jpz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aak8jpz@virginia.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keffer, Griffin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gmk3ug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gmk3ug@virginia.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kenny, Katie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kak6zb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kak6zb@virginia.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kersey, Madison</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mrk4tq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mrk4tq@virginia.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khanna, Sahil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sk5xvh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sk5xvh@virginia.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khwaja, Ayma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ak6xbg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ak6xbg@virginia.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kilduff, Jack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jpk6vd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jpk6vd@virginia.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kim, Joy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jek9dd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jek9dd@virginia.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kim, Jun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jk9eem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jk9eem@virginia.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kim, Kayla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kgk9ua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kgk9ua@virginia.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kim, Moses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mk2unn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mk2unn@virginia.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kim, Shiyun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sk2ps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sk2ps@virginia.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kim, Sia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sk5qj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sk5qj@virginia.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kingsley, Juliet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jrk2qtx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jrk2qtx@virginia.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiss, Charlotte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cgk7uds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cgk7uds@virginia.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kuehn, Grant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gtk3ted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gtk3ted@virginia.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kulkarni, Pallavi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">psk7pqw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">psk7pqw@virginia.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lee, Mihyung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ml3zz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ml3zz@virginia.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lee, Su Min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sl7ky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sl7ky@virginia.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lempriere-Johnston, Nicholas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nrl5fz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nrl5fz@virginia.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lester, Gavin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gtl9kqt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gtl9kqt@virginia.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liang, Jiayi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jl4qhq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jl4qhq@virginia.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liebel, Jack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jl8yj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jl8yj@virginia.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liggan, Connor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cl8vn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cl8vn@virginia.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lightfoot, Vale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vbl5wqh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vbl5wqh@virginia.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liu, Andrew</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ayl5fn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ayl5fn@virginia.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Locuratolo, Collin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cel9yft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cel9yft@virginia.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Louie, Kimberly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kll3qr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kll3qr@virginia.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luckinbill, Molly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mbl7ar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mbl7ar@virginia.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lukens, Hart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hal4gf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hal4gf@virginia.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Makin, Grace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gmm8xhs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gmm8xhs@virginia.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maran, Asha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aam8mf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aam8mf@virginia.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Massie, Harrison</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ham9aqv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ham9aqv@virginia.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">McCain, Sydnie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sm7fm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sm7fm@virginia.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">McClafferty, Michael</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mm3rd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mm3rd@virginia.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">McClellan, Connor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bcm2vn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bcm2vn@virginia.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teaching Assistant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mcdowell, Caroline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ccm3tu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ccm3tu@virginia.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melloni, Nick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nem4bg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nem4bg@virginia.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menon, Adarsh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asm3ds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asm3ds@virginia.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mora, Raymundo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rm3xw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rm3xw@virginia.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morgan, Abigail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">am5zm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">am5zm@virginia.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nehrboss, Will</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wkn4dm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wkn4dm@virginia.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nigam, Krutik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kn6zuq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kn6zuq@virginia.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oney, Brett</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bwo8xw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bwo8xw@virginia.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palnati, Sreya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ssp8br</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ssp8br@virginia.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pan, Julia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jp5ycx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jp5ycx@virginia.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Park, Jun Song</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jp6ax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jp6ax@virginia.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parlanti, Alex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arp2ba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arp2ba@virginia.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parson, Alex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">agp3nc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">agp3nc@virginia.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patel, Arav</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aap3wa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aap3wa@virginia.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peng, Vinny</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yp5vt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yp5vt@virginia.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pilati, Eric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ep9ca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ep9ca@virginia.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porth, Harrison</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hap5wmq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hap5wmq@virginia.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Powell, James</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jlp2dcz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jlp2dcz@virginia.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power, Riley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rap7qb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rap7qb@virginia.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prakash, Gauri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gbp9qn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gbp9qn@virginia.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qiu, Xinyue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xq8zu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xq8zu@virginia.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rajesh, Kaustav</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kr7ewt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kr7ewt@virginia.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rayman, Jared</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jlr9td</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jlr9td@virginia.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robbins, Hailey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hdr6pe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hdr6pe@virginia.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robinson, Alita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ar8bb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ar8bb@virginia.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rodriguez, Angie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amr4rnq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amr4rnq@virginia.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ross, Ryan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rtr7xjq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rtr7xjq@virginia.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santiago, Abigail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ams2pv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ams2pv@virginia.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santucci, Michael</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ms2fq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ms2fq@virginia.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schultz, Abby</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ams4qxb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ams4qxb@virginia.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scruggs, Cris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cms3zd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cms3zd@virginia.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selamaj, George</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ges4aw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ges4aw@virginia.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selby, Brendan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bs6dg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bs6dg@virginia.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shafer, Matthew</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mws6wp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mws6wp@virginia.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shah, Rutva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rs5qr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rs5qr@virginia.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shaheen, Leah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ls5ek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ls5ek@virginia.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shahid, Ahmad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as6sc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as6sc@virginia.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shen, Xan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ads2cu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ads2cu@virginia.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shi, Qiner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qs3ea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qs3ea@virginia.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shrader, Skye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sjs8jad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sjs8jad@virginia.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simpson, Alan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as4pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as4pm@virginia.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smith, Catie Claire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cas6mu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cas6mu@virginia.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sohn, Chan Young</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cs8jt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cs8jt@virginia.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Squires, Thomas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tcs6ayj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tcs6ayj@virginia.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Still, Alix Louise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">als3px</t>
+  </si>
+  <si>
+    <t xml:space="preserve">als3px@virginia.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stimpson, Sally</t>
+  </si>
+  <si>
+    <t xml:space="preserve">srs4xy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">srs4xy@virginia.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stone, Lindell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lts2gf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lts2gf@virginia.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sublett, Harrison</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hws8gt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hws8gt@virginia.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sullivan, Cavan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cs2us</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cs2us@virginia.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swain, Angel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">als3cp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">als3cp@virginia.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tahir, Fatima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ft7vfd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ft7vfd@virginia.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terrazas, Hector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hjt9wg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hjt9wg@virginia.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thielsch, Kyle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kt7gr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kt7gr@virginia.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thomas, Eric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">et6sw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">et6sw@virginia.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thota, Vinny</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vst7ta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vst7ta@virginia.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tohti, Daniel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dt3zjy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dt3zjy@virginia.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tran, Chloe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ctt3fh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ctt3fh@virginia.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ueland, Andreas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">au9nw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">au9nw@virginia.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Walker, Avery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amw5xd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amw5xd@virginia.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wang, Emma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zw3bq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zw3bq@virginia.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wang, Yilin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yw6jd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yw6jd@virginia.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wang, Yuyang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yw2aj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yw2aj@virginia.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ward, Anna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abw8rvg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abw8rvg@virginia.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weber, Pablo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pw9ev</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pw9ev@virginia.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weis, Cole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cvw2hb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cvw2hb@virginia.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Westbrook, Davis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dcw8ssq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dcw8ssq@virginia.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White, Connor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cjw5szr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cjw5szr@virginia.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whitney, Douglas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dcw2rp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dcw2rp@virginia.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Willis, Tyler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tjw6fjx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tjw6fjx@virginia.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wilson, Robert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rgw5vu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rgw5vu@virginia.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Woods, Cole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ctw9jpk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ctw9jpk@virginia.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worden, Colby</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cpw2ka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cpw2ka@virginia.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wright, Jack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jw9cu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jw9cu@virginia.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yager, Adin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aiy2jpm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aiy2jpm@virginia.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zaveri, Naqia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ntz3kq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ntz3kq@virginia.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20F ASTR 1290-001 (CGAS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Groups</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bertone, Alexander</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bresticker, Maxwell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brilz, Lillian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carson, Kathleen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Da costa, Jermaine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dornfeld, Joshua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dreyer, Alize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dye, Thomas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guerrero, Laura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">llg7zbe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jung, Hahnsol</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kane, Megan</t>
   </si>
   <si>
     <t xml:space="preserve">mrk3ja</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mrk3ja@virginia.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kapadia, Azzaam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aak8jpz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aak8jpz@virginia.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keffer, Griffin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gmk3ug</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gmk3ug@virginia.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kenny, Katie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kak6zb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kak6zb@virginia.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kersey, Madison</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mrk4tq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mrk4tq@virginia.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Khanna, Sahil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sk5xvh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sk5xvh@virginia.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Khwaja, Ayma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ak6xbg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ak6xbg@virginia.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kilduff, Jack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jpk6vd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jpk6vd@virginia.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kim, Joy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jek9dd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jek9dd@virginia.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kim, Jun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jk9eem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jk9eem@virginia.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kim, Kayla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kgk9ua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kgk9ua@virginia.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kim, Moses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mk2unn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mk2unn@virginia.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kim, Shiyun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sk2ps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sk2ps@virginia.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kim, Sia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sk5qj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sk5qj@virginia.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kingsley, Juliet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jrk2qtx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jrk2qtx@virginia.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiss, Charlotte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cgk7uds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cgk7uds@virginia.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kuehn, Grant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gtk3ted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gtk3ted@virginia.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kulkarni, Pallavi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">psk7pqw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">psk7pqw@virginia.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lee, Mihyung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ml3zz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ml3zz@virginia.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lee, Su Min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sl7ky</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sl7ky@virginia.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lempriere-Johnston, Nicholas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nrl5fz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nrl5fz@virginia.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lester, Gavin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gtl9kqt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gtl9kqt@virginia.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liang, Jiayi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jl4qhq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jl4qhq@virginia.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liebel, Jack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jl8yj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jl8yj@virginia.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liggan, Connor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cl8vn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cl8vn@virginia.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lightfoot, Vale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vbl5wqh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vbl5wqh@virginia.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liu, Andrew</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ayl5fn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ayl5fn@virginia.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Locuratolo, Collin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cel9yft</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cel9yft@virginia.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Louie, Kimberly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kll3qr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kll3qr@virginia.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luckinbill, Molly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mbl7ar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mbl7ar@virginia.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lukens, Hart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hal4gf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hal4gf@virginia.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Makin, Grace</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gmm8xhs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gmm8xhs@virginia.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maran, Asha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aam8mf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aam8mf@virginia.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Massie, Harrison</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ham9aqv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ham9aqv@virginia.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">McCain, Sydnie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sm7fm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sm7fm@virginia.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">McClafferty, Michael</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mm3rd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mm3rd@virginia.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">McClellan, Connor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bcm2vn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bcm2vn@virginia.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Teaching Assistant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mcdowell, Caroline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ccm3tu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ccm3tu@virginia.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Melloni, Nick</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nem4bg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nem4bg@virginia.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menon, Adarsh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asm3ds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asm3ds@virginia.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mora, Raymundo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rm3xw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rm3xw@virginia.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morgan, Abigail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">am5zm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">am5zm@virginia.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nehrboss, Will</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wkn4dm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wkn4dm@virginia.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nigam, Krutik</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kn6zuq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kn6zuq@virginia.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oney, Brett</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bwo8xw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bwo8xw@virginia.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Palnati, Sreya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ssp8br</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ssp8br@virginia.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pan, Julia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jp5ycx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jp5ycx@virginia.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Park, Jun Song</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jp6ax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jp6ax@virginia.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parlanti, Alex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">arp2ba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">arp2ba@virginia.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parson, Alex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">agp3nc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">agp3nc@virginia.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patel, Arav</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aap3wa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aap3wa@virginia.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peng, Vinny</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yp5vt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yp5vt@virginia.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pilati, Eric</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ep9ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ep9ca@virginia.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Porth, Harrison</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hap5wmq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hap5wmq@virginia.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Powell, James</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jlp2dcz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jlp2dcz@virginia.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Power, Riley</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rap7qb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rap7qb@virginia.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prakash, Gauri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gbp9qn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gbp9qn@virginia.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qiu, Xinyue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xq8zu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xq8zu@virginia.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rajesh, Kaustav</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kr7ewt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kr7ewt@virginia.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rayman, Jared</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jlr9td</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jlr9td@virginia.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Robbins, Hailey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hdr6pe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hdr6pe@virginia.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Robinson, Alita</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ar8bb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ar8bb@virginia.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rodriguez, Angie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">amr4rnq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">amr4rnq@virginia.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ross, Ryan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rtr7xjq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rtr7xjq@virginia.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Santiago, Abigail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ams2pv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ams2pv@virginia.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Santucci, Michael</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ms2fq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ms2fq@virginia.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schultz, Abby</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ams4qxb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ams4qxb@virginia.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scruggs, Cris</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cms3zd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cms3zd@virginia.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Selamaj, George</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ges4aw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ges4aw@virginia.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Selby, Brendan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bs6dg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bs6dg@virginia.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shafer, Matthew</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mws6wp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mws6wp@virginia.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shah, Rutva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rs5qr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rs5qr@virginia.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shaheen, Leah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ls5ek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ls5ek@virginia.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shahid, Ahmad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as6sc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as6sc@virginia.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shen, Xan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ads2cu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ads2cu@virginia.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shi, Qiner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qs3ea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qs3ea@virginia.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shrader, Skye</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sjs8jad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sjs8jad@virginia.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Simpson, Alan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as4pm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as4pm@virginia.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smith, Catie Claire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cas6mu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cas6mu@virginia.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sohn, Chan Young</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cs8jt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cs8jt@virginia.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Squires, Thomas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tcs6ayj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tcs6ayj@virginia.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Still, Alix Louise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">als3px</t>
-  </si>
-  <si>
-    <t xml:space="preserve">als3px@virginia.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stimpson, Sally</t>
-  </si>
-  <si>
-    <t xml:space="preserve">srs4xy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">srs4xy@virginia.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stone, Lindell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lts2gf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lts2gf@virginia.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sublett, Harrison</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hws8gt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hws8gt@virginia.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sullivan, Cavan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cs2us</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cs2us@virginia.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Swain, Angel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">als3cp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">als3cp@virginia.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tahir, Fatima</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ft7vfd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ft7vfd@virginia.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Terrazas, Hector</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hjt9wg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hjt9wg@virginia.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thielsch, Kyle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kt7gr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kt7gr@virginia.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thomas, Eric</t>
-  </si>
-  <si>
-    <t xml:space="preserve">et6sw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">et6sw@virginia.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thota, Vinny</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vst7ta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vst7ta@virginia.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tohti, Daniel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dt3zjy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dt3zjy@virginia.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tran, Chloe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ctt3fh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ctt3fh@virginia.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ueland, Andreas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">au9nw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">au9nw@virginia.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Walker, Avery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">amw5xd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">amw5xd@virginia.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wang, Emma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zw3bq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zw3bq@virginia.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wang, Yilin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yw6jd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yw6jd@virginia.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wang, Yuyang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yw2aj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yw2aj@virginia.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ward, Anna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">abw8rvg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">abw8rvg@virginia.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weber, Pablo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pw9ev</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pw9ev@virginia.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weis, Cole</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cvw2hb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cvw2hb@virginia.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Westbrook, Davis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dcw8ssq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dcw8ssq@virginia.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">White, Connor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cjw5szr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cjw5szr@virginia.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Whitney, Douglas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dcw2rp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dcw2rp@virginia.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Willis, Tyler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tjw6fjx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tjw6fjx@virginia.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wilson, Robert</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rgw5vu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rgw5vu@virginia.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Woods, Cole</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ctw9jpk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ctw9jpk@virginia.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Worden, Colby</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cpw2ka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cpw2ka@virginia.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wright, Jack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jw9cu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jw9cu@virginia.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yager, Adin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aiy2jpm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aiy2jpm@virginia.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zaveri, Naqia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ntz3kq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ntz3kq@virginia.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20F ASTR 1290-001 (CGAS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Groups</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bertone, Alexander</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bresticker, Maxwell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brilz, Lillian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carson, Kathleen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Da costa, Jermaine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dornfeld, Joshua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dreyer, Alize</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dye, Thomas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guerrero, Laura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">llg7zbe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jung, Hahnsol</t>
   </si>
   <si>
     <t xml:space="preserve">Kenny, Katherine</t>
@@ -2111,8 +2108,8 @@
   </sheetPr>
   <dimension ref="A1:D1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A143" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A168" activeCellId="0" sqref="A168"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A89" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A124" activeCellId="0" sqref="A124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3999,21 +3996,21 @@
         <v>405</v>
       </c>
       <c r="D137" s="0" t="s">
-        <v>8</v>
+        <v>406</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D138" s="0" t="s">
-        <v>409</v>
+        <v>8</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5052,20 +5049,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="0" t="s">
-        <v>632</v>
-      </c>
-      <c r="B213" s="0" t="s">
-        <v>633</v>
-      </c>
-      <c r="C213" s="0" t="s">
-        <v>634</v>
-      </c>
-      <c r="D213" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -5097,7 +5081,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5111,7 +5095,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5125,7 +5109,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5139,7 +5123,7 @@
         <v>8</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5153,7 +5137,7 @@
         <v>8</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5167,7 +5151,7 @@
         <v>8</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5181,7 +5165,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5195,7 +5179,7 @@
         <v>8</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5209,7 +5193,7 @@
         <v>8</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5223,7 +5207,7 @@
         <v>8</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5237,7 +5221,7 @@
         <v>8</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5251,7 +5235,7 @@
         <v>8</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5265,7 +5249,7 @@
         <v>8</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5279,12 +5263,12 @@
         <v>8</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>47</v>
@@ -5293,7 +5277,7 @@
         <v>8</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5307,7 +5291,7 @@
         <v>8</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5321,7 +5305,7 @@
         <v>8</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5335,7 +5319,7 @@
         <v>8</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5349,7 +5333,7 @@
         <v>8</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5363,12 +5347,12 @@
         <v>8</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>65</v>
@@ -5377,12 +5361,12 @@
         <v>8</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>68</v>
@@ -5391,7 +5375,7 @@
         <v>8</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5405,7 +5389,7 @@
         <v>8</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5419,7 +5403,7 @@
         <v>8</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5433,7 +5417,7 @@
         <v>8</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5447,7 +5431,7 @@
         <v>8</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5461,7 +5445,7 @@
         <v>8</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5475,7 +5459,7 @@
         <v>8</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5489,12 +5473,12 @@
         <v>8</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>92</v>
@@ -5503,7 +5487,7 @@
         <v>8</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5517,7 +5501,7 @@
         <v>8</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5531,7 +5515,7 @@
         <v>8</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5545,7 +5529,7 @@
         <v>8</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5559,7 +5543,7 @@
         <v>8</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5573,7 +5557,7 @@
         <v>8</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5587,7 +5571,7 @@
         <v>8</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5601,7 +5585,7 @@
         <v>8</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5615,7 +5599,7 @@
         <v>8</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5629,7 +5613,7 @@
         <v>8</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5643,7 +5627,7 @@
         <v>8</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5657,12 +5641,12 @@
         <v>8</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>128</v>
@@ -5671,7 +5655,7 @@
         <v>8</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5685,7 +5669,7 @@
         <v>8</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5699,7 +5683,7 @@
         <v>8</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5713,7 +5697,7 @@
         <v>24</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5727,7 +5711,7 @@
         <v>8</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5741,7 +5725,7 @@
         <v>8</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5755,7 +5739,7 @@
         <v>8</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5769,12 +5753,12 @@
         <v>8</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="B52" s="0" t="s">
         <v>152</v>
@@ -5783,7 +5767,7 @@
         <v>8</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5797,12 +5781,12 @@
         <v>8</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="B54" s="0" t="s">
         <v>158</v>
@@ -5811,7 +5795,7 @@
         <v>8</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5825,12 +5809,12 @@
         <v>8</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="B56" s="0" t="s">
         <v>164</v>
@@ -5839,7 +5823,7 @@
         <v>8</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5853,7 +5837,7 @@
         <v>8</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5867,7 +5851,7 @@
         <v>8</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5881,7 +5865,7 @@
         <v>8</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5895,7 +5879,7 @@
         <v>8</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5909,7 +5893,7 @@
         <v>8</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5923,7 +5907,7 @@
         <v>8</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5937,7 +5921,7 @@
         <v>8</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5951,7 +5935,7 @@
         <v>8</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5965,7 +5949,7 @@
         <v>8</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5979,7 +5963,7 @@
         <v>8</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5993,7 +5977,7 @@
         <v>8</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6007,7 +5991,7 @@
         <v>8</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6021,7 +6005,7 @@
         <v>8</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6035,7 +6019,7 @@
         <v>8</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6049,7 +6033,7 @@
         <v>8</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6063,7 +6047,7 @@
         <v>8</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6077,7 +6061,7 @@
         <v>8</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6091,7 +6075,7 @@
         <v>8</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6105,7 +6089,7 @@
         <v>8</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6119,7 +6103,7 @@
         <v>8</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6133,7 +6117,7 @@
         <v>8</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6147,7 +6131,7 @@
         <v>8</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6161,7 +6145,7 @@
         <v>8</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6175,7 +6159,7 @@
         <v>8</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6189,21 +6173,21 @@
         <v>8</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="C82" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6217,7 +6201,7 @@
         <v>8</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6231,7 +6215,7 @@
         <v>8</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6245,7 +6229,7 @@
         <v>8</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6259,7 +6243,7 @@
         <v>8</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6273,7 +6257,7 @@
         <v>8</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6287,7 +6271,7 @@
         <v>8</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6301,7 +6285,7 @@
         <v>8</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6315,7 +6299,7 @@
         <v>8</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6329,7 +6313,7 @@
         <v>8</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6343,7 +6327,7 @@
         <v>8</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6357,7 +6341,7 @@
         <v>8</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6371,7 +6355,7 @@
         <v>8</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6385,7 +6369,7 @@
         <v>8</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6399,7 +6383,7 @@
         <v>8</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6413,7 +6397,7 @@
         <v>8</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6427,7 +6411,7 @@
         <v>8</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6441,7 +6425,7 @@
         <v>8</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6455,12 +6439,12 @@
         <v>8</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="B101" s="0" t="s">
         <v>296</v>
@@ -6469,1580 +6453,1580 @@
         <v>8</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>298</v>
+        <v>645</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>299</v>
+        <v>646</v>
       </c>
       <c r="C102" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C103" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C104" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C105" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
+        <v>648</v>
+      </c>
+      <c r="B106" s="0" t="s">
         <v>649</v>
       </c>
-      <c r="B106" s="0" t="s">
-        <v>650</v>
-      </c>
       <c r="C106" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C107" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C108" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C109" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C110" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C111" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C112" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C113" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C114" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C115" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C116" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D116" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C117" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C118" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C119" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C120" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C121" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C122" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C123" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D123" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C124" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D124" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C125" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C126" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D126" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C127" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C128" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D128" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C129" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D129" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C130" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D130" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C131" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D131" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C132" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D132" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C133" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D133" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C134" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D134" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C135" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D135" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C136" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D136" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C137" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D137" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C138" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D138" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C139" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D139" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C140" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D140" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C141" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D141" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C142" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D142" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C143" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D143" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C144" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D144" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C145" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D145" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C146" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D146" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C147" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D147" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C148" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D148" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C149" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D149" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C150" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D150" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C151" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D151" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C152" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D152" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C153" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D153" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C154" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D154" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C155" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D155" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C156" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D156" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C157" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D157" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C158" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D158" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C159" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D159" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C160" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D160" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C161" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D161" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C162" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D162" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C163" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D163" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C164" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D164" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C165" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D165" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C166" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D166" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C167" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D167" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="C168" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D168" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C169" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D169" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C170" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D170" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C171" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D171" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C172" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D172" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C173" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D173" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C174" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D174" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C175" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D175" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C176" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D176" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="C177" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D177" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C178" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D178" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C179" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D179" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C180" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D180" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C181" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D181" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C182" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D182" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C183" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D183" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C184" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D184" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C185" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D185" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="C186" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D186" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C187" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D187" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C188" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D188" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="C189" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D189" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="C190" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D190" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C191" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D191" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="C192" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D192" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="C193" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D193" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="C194" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D194" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="C195" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D195" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="C196" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D196" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="C197" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D197" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="C198" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D198" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="C199" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D199" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="C200" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D200" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C201" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D201" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C202" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D202" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C203" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D203" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C204" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D204" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="C205" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D205" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="C206" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D206" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="C207" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D207" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="C208" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D208" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="C209" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D209" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="C210" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D210" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="C211" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D211" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="C212" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D212" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="C213" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D213" s="0" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8056,7 +8040,7 @@
         <v>4</v>
       </c>
       <c r="D217" s="0" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
   </sheetData>
